--- a/data/Assignment table definitions.xlsx
+++ b/data/Assignment table definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\PMRP\1. Team\Roles\RO27 Data Scientist\Written test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teckresources-my.sharepoint.com/personal/varun_indurthi_teck_com/Documents/Desktop/Varun/Jobs/BC gov/Citizen services/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B749FBB0-5AD4-4B7B-B9BF-98A803DEDCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B749FBB0-5AD4-4B7B-B9BF-98A803DEDCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58AA1F85-9D98-4A63-9518-A560EF1A9DDA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0563CF1-9543-4BF2-9131-1E5B992E2694}"/>
+    <workbookView xWindow="-28920" yWindow="-5790" windowWidth="29040" windowHeight="15840" xr2:uid="{E0563CF1-9543-4BF2-9131-1E5B992E2694}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -740,7 +740,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
